--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value481.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value481.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9918622923109235</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>1.725181597788489</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.23000952515101</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.594834309784481</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.044943774254037</v>
+        <v>0.9437743425369263</v>
       </c>
     </row>
   </sheetData>
